--- a/documentacao/Guia Definicao da Arquitetura V4.xlsx
+++ b/documentacao/Guia Definicao da Arquitetura V4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renpa\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renpa\OneDrive\Área de Trabalho\Knowu-Grupo5\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E30290-B6B9-42FD-A3E0-B17705A05F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B292F4-EF1C-48D3-B7A4-F0B67F4B151A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,9 +207,6 @@
     <t>Windows, Linux, IOS, MacOS, Android</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomcat, SPRING, ReactJS </t>
-  </si>
-  <si>
     <t>Azure,  Notebook</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Postman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRING Boot, ReactJS </t>
   </si>
 </sst>
 </file>
@@ -394,6 +394,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,30 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,16 +709,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036DB22A-6FFA-4CD0-A3AA-AF0DD32AFF0D}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.81640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="48.81640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="45.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56" style="9"/>
+    <col min="4" max="4" width="56" style="6"/>
     <col min="5" max="16384" width="56" style="1"/>
   </cols>
   <sheetData>
@@ -735,266 +735,266 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="16" t="s">
+    <row r="16" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="13" t="s">
+    <row r="17" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="13" t="s">
+    <row r="19" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" s="15"/>
+      <c r="B19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="16" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="15"/>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="13" t="s">
+    <row r="21" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="16" t="s">
+    <row r="22" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="13" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="16"/>
+      <c r="B23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
-      <c r="B23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
